--- a/biology/Médecine/1198_en_santé_et_médecine/1198_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1198_en_santé_et_médecine/1198_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1198_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1198_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1198 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1198_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1198_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Foulques de Neuilly fonde à Paris une maison pour les prostituées pénitentes, qui deviendra l'abbaye Saint-Antoine-des-Champs[1].
-1198 ? : fondation, sur la route de Saugues à Aumont, au col de l'Hospitalet dans les monts de Margeride, d'un hôpital de pèlerins construit « auprès d'une fontaine réputée pour guérir les maladies de peau et celles des yeux [et] placé sous le vocable Saint-Jacques[2] ».
-Vers 1198 : le pape Innocent III fait construire à Rome l'hôpital Sainte-Marie de Sassia, qu'il confiera en 1204 à Guy de Montpellier, fondateur de l'ordre hospitalier du Saint-Esprit[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Foulques de Neuilly fonde à Paris une maison pour les prostituées pénitentes, qui deviendra l'abbaye Saint-Antoine-des-Champs.
+1198 ? : fondation, sur la route de Saugues à Aumont, au col de l'Hospitalet dans les monts de Margeride, d'un hôpital de pèlerins construit « auprès d'une fontaine réputée pour guérir les maladies de peau et celles des yeux [et] placé sous le vocable Saint-Jacques ».
+Vers 1198 : le pape Innocent III fait construire à Rome l'hôpital Sainte-Marie de Sassia, qu'il confiera en 1204 à Guy de Montpellier, fondateur de l'ordre hospitalier du Saint-Esprit.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1198_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1198_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Maïmonide (1138-1204) rédige son  « Régime de santé » (Fī tadbīr al-ṣiḥḥah), traité de diététique dédié au sultan de Damas,  Nur al-Din Ali, fils aîné de Saladin[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Maïmonide (1138-1204) rédige son  « Régime de santé » (Fī tadbīr al-ṣiḥḥah), traité de diététique dédié au sultan de Damas,  Nur al-Din Ali, fils aîné de Saladin.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1198_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1198_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +589,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean de Saint-Alban (v. 1168-apr. 1253 ?) est nommé Premier médecin du roi de France Philippe Auguste[5].
-Fl. Arnoul, médecin, inscrit au rôle de l’Échiquier de Normandie[6].
-Fl. Guillaume, mire, à Orléans, ville du domaine  royal[6].
-1178-1198 : fl. Gautier, moine et médecin, cité dans une charte de l'abbaye Saint-Étienne de Dijon en Bourgogne[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean de Saint-Alban (v. 1168-apr. 1253 ?) est nommé Premier médecin du roi de France Philippe Auguste.
+Fl. Arnoul, médecin, inscrit au rôle de l’Échiquier de Normandie.
+Fl. Guillaume, mire, à Orléans, ville du domaine  royal.
+1178-1198 : fl. Gautier, moine et médecin, cité dans une charte de l'abbaye Saint-Étienne de Dijon en Bourgogne.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1198_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1198_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10 décembre : Averroès (né en 1126), philosophe, juriste et médecin arabe[7].
-Ibn Ğumay‘ (en) (né à une date inconnue), médecin juif de Saladin[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 décembre : Averroès (né en 1126), philosophe, juriste et médecin arabe.
+Ibn Ğumay‘ (en) (né à une date inconnue), médecin juif de Saladin.
 </t>
         </is>
       </c>
